--- a/file.xlsx
+++ b/file.xlsx
@@ -380,7 +380,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
